--- a/output/1Y_P42_KFSDIV.xlsx
+++ b/output/1Y_P42_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>14.1176</v>
       </c>
       <c r="C2" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D2" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>15.3311</v>
       </c>
       <c r="C3" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D3" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E3" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="F3" s="1">
-        <v>652.2689</v>
+        <v>650.9654</v>
       </c>
       <c r="H3" s="1">
-        <v>10859.5654</v>
+        <v>10816.1375</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10859.5654</v>
+        <v>10816.1375</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.08599999999999999</v>
+        <v>0.08160000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>15.3637</v>
       </c>
       <c r="C4" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D4" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E4" s="1">
-        <v>1360.6046</v>
+        <v>1357.884</v>
       </c>
       <c r="F4" s="1">
-        <v>650.8849</v>
+        <v>649.5826</v>
       </c>
       <c r="H4" s="1">
-        <v>20903.9211</v>
+        <v>20820.4353</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20903.9211</v>
+        <v>20820.4353</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.6993</v>
+        <v>14.7288</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0021</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>14.6447</v>
       </c>
       <c r="C5" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D5" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E5" s="1">
-        <v>2011.4895</v>
+        <v>2007.4666</v>
       </c>
       <c r="F5" s="1">
-        <v>682.8409</v>
+        <v>681.4774</v>
       </c>
       <c r="H5" s="1">
-        <v>29457.6601</v>
+        <v>29339.9279</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29457.6601</v>
+        <v>29339.9279</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>14.9143</v>
+        <v>14.9442</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
       </c>
       <c r="N5" s="1">
-        <v>1224.5442</v>
+        <v>1222.0956</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8775.4558</v>
+        <v>-8777.904399999999</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0468</v>
+        <v>-0.048</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>15.486</v>
       </c>
       <c r="C6" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D6" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E6" s="1">
-        <v>2694.3304</v>
+        <v>2688.9441</v>
       </c>
       <c r="F6" s="1">
-        <v>655.6288</v>
+        <v>654.2993</v>
       </c>
       <c r="H6" s="1">
-        <v>41724.4003</v>
+        <v>41557.6308</v>
       </c>
       <c r="I6" s="1">
-        <v>1224.5442</v>
+        <v>1222.0956</v>
       </c>
       <c r="J6" s="1">
-        <v>42948.9444</v>
+        <v>42779.7264</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.846</v>
+        <v>14.8757</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10153.068</v>
+        <v>-10152.7619</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0885</v>
+        <v>0.08740000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>16.1958</v>
       </c>
       <c r="C7" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D7" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E7" s="1">
-        <v>3349.9592</v>
+        <v>3343.2434</v>
       </c>
       <c r="F7" s="1">
-        <v>626.8951</v>
+        <v>625.6247</v>
       </c>
       <c r="H7" s="1">
-        <v>54254.9344</v>
+        <v>54038.1798</v>
       </c>
       <c r="I7" s="1">
-        <v>1071.4761</v>
+        <v>1069.3336</v>
       </c>
       <c r="J7" s="1">
-        <v>55326.4105</v>
+        <v>55107.5134</v>
       </c>
       <c r="K7" s="1">
-        <v>50153.068</v>
+        <v>50152.7619</v>
       </c>
       <c r="L7" s="1">
-        <v>14.9712</v>
+        <v>15.0012</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10153.068</v>
+        <v>-10152.7619</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0449</v>
+        <v>0.0441</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>16.4264</v>
       </c>
       <c r="C8" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D8" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E8" s="1">
-        <v>3976.8543</v>
+        <v>3968.868</v>
       </c>
       <c r="F8" s="1">
-        <v>618.0945</v>
+        <v>616.8404</v>
       </c>
       <c r="H8" s="1">
-        <v>65325.4</v>
+        <v>65064.0346</v>
       </c>
       <c r="I8" s="1">
-        <v>918.4081</v>
+        <v>916.5717</v>
       </c>
       <c r="J8" s="1">
-        <v>66243.80809999999</v>
+        <v>65980.6063</v>
       </c>
       <c r="K8" s="1">
-        <v>60306.136</v>
+        <v>60305.5239</v>
       </c>
       <c r="L8" s="1">
-        <v>15.1643</v>
+        <v>15.1946</v>
       </c>
       <c r="M8" s="1">
         <v>0.75</v>
       </c>
       <c r="N8" s="1">
-        <v>2261.2225</v>
+        <v>2256.6893</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7891.8456</v>
+        <v>-7896.0727</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.014</v>
+        <v>0.0134</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>17.107</v>
       </c>
       <c r="C9" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D9" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E9" s="1">
-        <v>4594.9489</v>
+        <v>4585.7085</v>
       </c>
       <c r="F9" s="1">
-        <v>619.9399</v>
+        <v>618.6287</v>
       </c>
       <c r="H9" s="1">
-        <v>78605.7902</v>
+        <v>78290.88340000001</v>
       </c>
       <c r="I9" s="1">
-        <v>3026.5626</v>
+        <v>3020.499</v>
       </c>
       <c r="J9" s="1">
-        <v>81632.3527</v>
+        <v>81311.3824</v>
       </c>
       <c r="K9" s="1">
-        <v>70459.2041</v>
+        <v>70458.2858</v>
       </c>
       <c r="L9" s="1">
-        <v>15.3341</v>
+        <v>15.3648</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10605.3125</v>
+        <v>-10604.0998</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0707</v>
+        <v>0.0702</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>16.8894</v>
       </c>
       <c r="C10" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D10" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E10" s="1">
-        <v>5214.8888</v>
+        <v>5204.3371</v>
       </c>
       <c r="F10" s="1">
-        <v>627.9271</v>
+        <v>626.6013</v>
       </c>
       <c r="H10" s="1">
-        <v>88075.8214</v>
+        <v>87722.2251</v>
       </c>
       <c r="I10" s="1">
-        <v>2421.25</v>
+        <v>2416.3992</v>
       </c>
       <c r="J10" s="1">
-        <v>90497.07150000001</v>
+        <v>90138.6243</v>
       </c>
       <c r="K10" s="1">
-        <v>81064.5166</v>
+        <v>81062.3857</v>
       </c>
       <c r="L10" s="1">
-        <v>15.5448</v>
+        <v>15.5759</v>
       </c>
       <c r="M10" s="1">
         <v>1</v>
       </c>
       <c r="N10" s="1">
-        <v>4135.454</v>
+        <v>4127.1376</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-6469.8585</v>
+        <v>-6476.9622</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0124</v>
+        <v>-0.0128</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>16.4004</v>
       </c>
       <c r="C11" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D11" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E11" s="1">
-        <v>5842.8159</v>
+        <v>5830.9385</v>
       </c>
       <c r="F11" s="1">
-        <v>730.7015</v>
+        <v>728.9961</v>
       </c>
       <c r="H11" s="1">
-        <v>95824.5184</v>
+        <v>95438.46859999999</v>
       </c>
       <c r="I11" s="1">
-        <v>5951.3915</v>
+        <v>5939.437</v>
       </c>
       <c r="J11" s="1">
-        <v>101775.9099</v>
+        <v>101377.9057</v>
       </c>
       <c r="K11" s="1">
-        <v>91669.8291</v>
+        <v>91666.4855</v>
       </c>
       <c r="L11" s="1">
-        <v>15.6893</v>
+        <v>15.7207</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11983.7972</v>
+        <v>-11979.8123</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0127</v>
+        <v>0.0124</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>15.3877</v>
       </c>
       <c r="C12" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D12" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E12" s="1">
-        <v>6573.5175</v>
+        <v>6559.9346</v>
       </c>
       <c r="F12" s="1">
-        <v>778.7907</v>
+        <v>776.9765</v>
       </c>
       <c r="H12" s="1">
-        <v>101151.3145</v>
+        <v>100740.26</v>
       </c>
       <c r="I12" s="1">
-        <v>3967.5943</v>
+        <v>3959.6247</v>
       </c>
       <c r="J12" s="1">
-        <v>105118.9088</v>
+        <v>104699.8847</v>
       </c>
       <c r="K12" s="1">
-        <v>103653.6263</v>
+        <v>103646.2978</v>
       </c>
       <c r="L12" s="1">
-        <v>15.7684</v>
+        <v>15.7999</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11983.7972</v>
+        <v>-11979.8123</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0596</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>14.6367</v>
       </c>
       <c r="C13" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D13" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E13" s="1">
-        <v>7352.3081</v>
+        <v>7336.9111</v>
       </c>
       <c r="F13" s="1">
-        <v>818.7499</v>
+        <v>816.8425</v>
       </c>
       <c r="H13" s="1">
-        <v>107613.5282</v>
+        <v>107173.1957</v>
       </c>
       <c r="I13" s="1">
-        <v>1983.7972</v>
+        <v>1979.8123</v>
       </c>
       <c r="J13" s="1">
-        <v>109597.3254</v>
+        <v>109153.008</v>
       </c>
       <c r="K13" s="1">
-        <v>115637.4234</v>
+        <v>115626.1101</v>
       </c>
       <c r="L13" s="1">
-        <v>15.728</v>
+        <v>15.7595</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11983.7972</v>
+        <v>-11979.8123</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.048</v>
+        <v>-0.0484</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>13.0061</v>
       </c>
       <c r="C14" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D14" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E14" s="1">
-        <v>8171.0581</v>
+        <v>8153.7537</v>
       </c>
       <c r="F14" s="1">
-        <v>-8171.0581</v>
+        <v>-8153.7537</v>
       </c>
       <c r="H14" s="1">
-        <v>106273.5982</v>
+        <v>105836.5378</v>
       </c>
       <c r="I14" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>106273.5982</v>
+        <v>105836.5378</v>
       </c>
       <c r="K14" s="1">
-        <v>127621.2206</v>
+        <v>127605.9225</v>
       </c>
       <c r="L14" s="1">
-        <v>15.6187</v>
+        <v>15.65</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3308.5387</v>
+        <v>3301.61</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>109582.1368</v>
+        <v>109138.1478</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1114</v>
+        <v>-0.1118</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>14.1176</v>
       </c>
       <c r="C2" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D2" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>15.3311</v>
       </c>
       <c r="C3" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D3" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E3" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="F3" s="1">
-        <v>596.2021</v>
+        <v>600.2368</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10859.5654</v>
+        <v>10816.1375</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10859.5654</v>
+        <v>10816.1375</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9140.434600000001</v>
+        <v>-9220.717000000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.08599999999999999</v>
+        <v>0.08160000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>15.3637</v>
       </c>
       <c r="C4" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D4" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E4" s="1">
-        <v>1304.5378</v>
+        <v>1307.1554</v>
       </c>
       <c r="F4" s="1">
-        <v>648.1168</v>
+        <v>649.4089</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20042.5279</v>
+        <v>20042.6133</v>
       </c>
       <c r="I4" s="1">
-        <v>859.5654</v>
+        <v>779.283</v>
       </c>
       <c r="J4" s="1">
-        <v>20902.0933</v>
+        <v>20821.8963</v>
       </c>
       <c r="K4" s="1">
-        <v>19140.4346</v>
+        <v>19220.717</v>
       </c>
       <c r="L4" s="1">
-        <v>14.6722</v>
+        <v>14.7042</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9957.472100000001</v>
+        <v>-9997.3254</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.002</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>14.6447</v>
       </c>
       <c r="C5" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D5" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E5" s="1">
-        <v>1952.6546</v>
+        <v>1956.5643</v>
       </c>
       <c r="F5" s="1">
-        <v>744.4395</v>
+        <v>734.7661000000001</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>28596.0413</v>
+        <v>28595.9695</v>
       </c>
       <c r="I5" s="1">
-        <v>902.0933</v>
+        <v>781.9576</v>
       </c>
       <c r="J5" s="1">
-        <v>29498.1346</v>
+        <v>29377.9271</v>
       </c>
       <c r="K5" s="1">
-        <v>29097.9067</v>
+        <v>29218.0424</v>
       </c>
       <c r="L5" s="1">
-        <v>14.9017</v>
+        <v>14.9333</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
       </c>
       <c r="N5" s="1">
-        <v>1174.0841</v>
+        <v>1176.4398</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9728.0092</v>
+        <v>-9605.5178</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0454</v>
+        <v>-0.0468</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>15.486</v>
       </c>
       <c r="C6" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D6" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E6" s="1">
-        <v>2697.0941</v>
+        <v>2691.3304</v>
       </c>
       <c r="F6" s="1">
-        <v>531.6286</v>
+        <v>543.8686</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>41767.1999</v>
+        <v>41594.5108</v>
       </c>
       <c r="I6" s="1">
-        <v>1174.0841</v>
+        <v>1176.4398</v>
       </c>
       <c r="J6" s="1">
-        <v>42941.284</v>
+        <v>42770.9506</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.8308</v>
+        <v>14.8625</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8232.8001</v>
+        <v>-8439.2091</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0872</v>
+        <v>0.0862</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>16.1958</v>
       </c>
       <c r="C7" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D7" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E7" s="1">
-        <v>3228.7227</v>
+        <v>3235.199</v>
       </c>
       <c r="F7" s="1">
-        <v>475.9643</v>
+        <v>476.8913</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>52291.4245</v>
+        <v>52291.8149</v>
       </c>
       <c r="I7" s="1">
-        <v>2941.284</v>
+        <v>2737.2308</v>
       </c>
       <c r="J7" s="1">
-        <v>55232.7085</v>
+        <v>55029.0457</v>
       </c>
       <c r="K7" s="1">
-        <v>48232.8001</v>
+        <v>48439.2091</v>
       </c>
       <c r="L7" s="1">
-        <v>14.9387</v>
+        <v>14.9726</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-7708.6231</v>
+        <v>-7739.0876</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0433</v>
+        <v>0.0428</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>16.4264</v>
       </c>
       <c r="C8" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D8" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E8" s="1">
-        <v>3704.687</v>
+        <v>3712.0903</v>
       </c>
       <c r="F8" s="1">
-        <v>556.7458</v>
+        <v>557.8687</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>60854.6713</v>
+        <v>60854.5232</v>
       </c>
       <c r="I8" s="1">
-        <v>5232.6609</v>
+        <v>4998.1431</v>
       </c>
       <c r="J8" s="1">
-        <v>66087.3322</v>
+        <v>65852.6663</v>
       </c>
       <c r="K8" s="1">
-        <v>55941.4232</v>
+        <v>56178.2967</v>
       </c>
       <c r="L8" s="1">
-        <v>15.1002</v>
+        <v>15.1339</v>
       </c>
       <c r="M8" s="1">
         <v>0.75</v>
       </c>
       <c r="N8" s="1">
-        <v>2179.3878</v>
+        <v>2183.7593</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-6965.9409</v>
+        <v>-6998.3695</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0131</v>
+        <v>0.0127</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>17.107</v>
       </c>
       <c r="C9" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D9" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E9" s="1">
-        <v>4261.4328</v>
+        <v>4269.959</v>
       </c>
       <c r="F9" s="1">
-        <v>415.0154</v>
+        <v>415.857</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>72900.3312</v>
+        <v>72900.1562</v>
       </c>
       <c r="I9" s="1">
-        <v>8266.719999999999</v>
+        <v>7999.7737</v>
       </c>
       <c r="J9" s="1">
-        <v>81167.0512</v>
+        <v>80899.9298</v>
       </c>
       <c r="K9" s="1">
-        <v>65086.7519</v>
+        <v>65360.4255</v>
       </c>
       <c r="L9" s="1">
-        <v>15.2734</v>
+        <v>15.307</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7099.6688</v>
+        <v>-7128.33</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0668</v>
+        <v>0.0665</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>16.8894</v>
       </c>
       <c r="C10" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D10" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E10" s="1">
-        <v>4676.4482</v>
+        <v>4685.816</v>
       </c>
       <c r="F10" s="1">
-        <v>652.3694</v>
+        <v>653.6557</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>78981.9372</v>
+        <v>78982.2408</v>
       </c>
       <c r="I10" s="1">
-        <v>11167.0512</v>
+        <v>10871.4436</v>
       </c>
       <c r="J10" s="1">
-        <v>90148.9884</v>
+        <v>89853.6844</v>
       </c>
       <c r="K10" s="1">
-        <v>72186.4207</v>
+        <v>72488.7555</v>
       </c>
       <c r="L10" s="1">
-        <v>15.4362</v>
+        <v>15.4698</v>
       </c>
       <c r="M10" s="1">
         <v>1</v>
       </c>
       <c r="N10" s="1">
-        <v>3835.2895</v>
+        <v>3842.9631</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7182.8385</v>
+        <v>-7218.9833</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0112</v>
+        <v>-0.0115</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>16.4004</v>
       </c>
       <c r="C11" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D11" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E11" s="1">
-        <v>5328.8177</v>
+        <v>5339.4717</v>
       </c>
       <c r="F11" s="1">
-        <v>768.5946</v>
+        <v>770.1595</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>87394.74099999999</v>
+        <v>87394.33779999999</v>
       </c>
       <c r="I11" s="1">
-        <v>13984.2127</v>
+        <v>13652.4603</v>
       </c>
       <c r="J11" s="1">
-        <v>101378.9538</v>
+        <v>101046.7981</v>
       </c>
       <c r="K11" s="1">
-        <v>83204.5487</v>
+        <v>83550.7019</v>
       </c>
       <c r="L11" s="1">
-        <v>15.6141</v>
+        <v>15.6477</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-12605.259</v>
+        <v>-12656.2617</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0123</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>15.3877</v>
       </c>
       <c r="C12" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D12" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E12" s="1">
-        <v>6097.4123</v>
+        <v>6109.6312</v>
       </c>
       <c r="F12" s="1">
-        <v>1051.1545</v>
+        <v>1053.2727</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>93825.15059999999</v>
+        <v>93824.9957</v>
       </c>
       <c r="I12" s="1">
-        <v>11378.9538</v>
+        <v>10996.1987</v>
       </c>
       <c r="J12" s="1">
-        <v>105204.1044</v>
+        <v>104821.1944</v>
       </c>
       <c r="K12" s="1">
-        <v>95809.8077</v>
+        <v>96206.9636</v>
       </c>
       <c r="L12" s="1">
-        <v>15.7132</v>
+        <v>15.7468</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-16174.8494</v>
+        <v>-16239.8859</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0554</v>
+        <v>-0.0561</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>14.6367</v>
       </c>
       <c r="C13" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D13" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E13" s="1">
-        <v>7148.5667</v>
+        <v>7162.904</v>
       </c>
       <c r="F13" s="1">
-        <v>1038.7659</v>
+        <v>1006.158</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>104631.4264</v>
+        <v>104631.4035</v>
       </c>
       <c r="I13" s="1">
-        <v>5204.1044</v>
+        <v>4756.3128</v>
       </c>
       <c r="J13" s="1">
-        <v>109835.5308</v>
+        <v>109387.7162</v>
       </c>
       <c r="K13" s="1">
-        <v>111984.6571</v>
+        <v>112446.8495</v>
       </c>
       <c r="L13" s="1">
-        <v>15.6653</v>
+        <v>15.6985</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-15204.1044</v>
+        <v>-14756.3128</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0466</v>
+        <v>-0.0473</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,49 +2086,49 @@
         <v>13.0061</v>
       </c>
       <c r="C14" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D14" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E14" s="1">
-        <v>8187.3326</v>
+        <v>8169.0619</v>
       </c>
       <c r="F14" s="1">
-        <v>-8187.3326</v>
+        <v>-8169.0619</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>106485.2663</v>
+        <v>106035.2409</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>106485.2663</v>
+        <v>106035.2409</v>
       </c>
       <c r="K14" s="1">
-        <v>127188.7614</v>
+        <v>127203.1622</v>
       </c>
       <c r="L14" s="1">
-        <v>15.5348</v>
+        <v>15.5713</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3216.855</v>
+        <v>3223.3068</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>109702.1213</v>
+        <v>109258.5477</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1114</v>
+        <v>-0.1118</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>14.1176</v>
       </c>
       <c r="C2" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D2" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>15.3311</v>
       </c>
       <c r="C3" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D3" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E3" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="F3" s="1">
-        <v>599.4635</v>
+        <v>603.5046</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10859.5654</v>
+        <v>10816.1375</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10859.5654</v>
+        <v>10816.1375</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9190.434600000001</v>
+        <v>-9270.917600000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.08599999999999999</v>
+        <v>0.08160000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>15.3637</v>
       </c>
       <c r="C4" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D4" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E4" s="1">
-        <v>1307.7992</v>
+        <v>1310.4233</v>
       </c>
       <c r="F4" s="1">
-        <v>654.635</v>
+        <v>655.9401</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20092.6343</v>
+        <v>20092.7198</v>
       </c>
       <c r="I4" s="1">
-        <v>809.5654</v>
+        <v>729.0824</v>
       </c>
       <c r="J4" s="1">
-        <v>20902.1996</v>
+        <v>20821.8022</v>
       </c>
       <c r="K4" s="1">
-        <v>19190.4346</v>
+        <v>19270.9176</v>
       </c>
       <c r="L4" s="1">
-        <v>14.6738</v>
+        <v>14.7059</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10057.6157</v>
+        <v>-10097.8705</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.002</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>14.6447</v>
       </c>
       <c r="C5" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D5" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E5" s="1">
-        <v>1962.4342</v>
+        <v>1966.3634</v>
       </c>
       <c r="F5" s="1">
-        <v>734.1871</v>
+        <v>724.4931</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>28739.2598</v>
+        <v>28739.1876</v>
       </c>
       <c r="I5" s="1">
-        <v>751.9496</v>
+        <v>631.2118</v>
       </c>
       <c r="J5" s="1">
-        <v>29491.2094</v>
+        <v>29370.3995</v>
       </c>
       <c r="K5" s="1">
-        <v>29248.0504</v>
+        <v>29368.7882</v>
       </c>
       <c r="L5" s="1">
-        <v>14.904</v>
+        <v>14.9356</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
       </c>
       <c r="N5" s="1">
-        <v>1177.0193</v>
+        <v>1179.3809</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9574.930399999999</v>
+        <v>-9451.830900000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0457</v>
+        <v>-0.0471</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>15.486</v>
       </c>
       <c r="C6" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D6" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E6" s="1">
-        <v>2696.6213</v>
+        <v>2690.8565</v>
       </c>
       <c r="F6" s="1">
-        <v>564.5505000000001</v>
+        <v>576.8566</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>41759.8769</v>
+        <v>41587.1873</v>
       </c>
       <c r="I6" s="1">
-        <v>1177.0193</v>
+        <v>1179.3809</v>
       </c>
       <c r="J6" s="1">
-        <v>42936.8962</v>
+        <v>42766.5682</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.8334</v>
+        <v>14.8652</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8742.629300000001</v>
+        <v>-8951.0841</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0873</v>
+        <v>0.0863</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>16.1958</v>
       </c>
       <c r="C7" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D7" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E7" s="1">
-        <v>3261.1718</v>
+        <v>3267.7131</v>
       </c>
       <c r="F7" s="1">
-        <v>490.1337</v>
+        <v>491.0888</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>52816.9599</v>
+        <v>52817.3542</v>
       </c>
       <c r="I7" s="1">
-        <v>2434.3899</v>
+        <v>2228.2968</v>
       </c>
       <c r="J7" s="1">
-        <v>55251.3498</v>
+        <v>55045.6511</v>
       </c>
       <c r="K7" s="1">
-        <v>48742.6293</v>
+        <v>48951.0841</v>
       </c>
       <c r="L7" s="1">
-        <v>14.9464</v>
+        <v>14.9802</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-7938.1079</v>
+        <v>-7969.4871</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0437</v>
+        <v>0.0432</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>16.4264</v>
       </c>
       <c r="C8" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D8" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E8" s="1">
-        <v>3751.3055</v>
+        <v>3758.8019</v>
       </c>
       <c r="F8" s="1">
-        <v>574.5841</v>
+        <v>575.7429</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>61620.445</v>
+        <v>61620.295</v>
       </c>
       <c r="I8" s="1">
-        <v>4496.282</v>
+        <v>4258.8097</v>
       </c>
       <c r="J8" s="1">
-        <v>66116.727</v>
+        <v>65879.1047</v>
       </c>
       <c r="K8" s="1">
-        <v>56680.7373</v>
+        <v>56920.5712</v>
       </c>
       <c r="L8" s="1">
-        <v>15.1096</v>
+        <v>15.1433</v>
       </c>
       <c r="M8" s="1">
         <v>0.75</v>
       </c>
       <c r="N8" s="1">
-        <v>2201.291</v>
+        <v>2205.7064</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7237.058</v>
+        <v>-7270.6188</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0133</v>
+        <v>0.0128</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>17.107</v>
       </c>
       <c r="C9" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D9" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E9" s="1">
-        <v>4325.8897</v>
+        <v>4334.5448</v>
       </c>
       <c r="F9" s="1">
-        <v>433.2199</v>
+        <v>434.0982</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>74002.9944</v>
+        <v>74002.8167</v>
       </c>
       <c r="I9" s="1">
-        <v>7259.224</v>
+        <v>6988.1909</v>
       </c>
       <c r="J9" s="1">
-        <v>81262.2184</v>
+        <v>80991.0076</v>
       </c>
       <c r="K9" s="1">
-        <v>66119.08620000001</v>
+        <v>66396.8964</v>
       </c>
       <c r="L9" s="1">
-        <v>15.2845</v>
+        <v>15.3181</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7411.0935</v>
+        <v>-7441.0069</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.06759999999999999</v>
+        <v>0.0674</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +2642,49 @@
         <v>16.8894</v>
       </c>
       <c r="C10" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D10" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E10" s="1">
-        <v>4759.1096</v>
+        <v>4768.643</v>
       </c>
       <c r="F10" s="1">
-        <v>677.5372</v>
+        <v>678.8735</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>80378.0297</v>
+        <v>80378.3386</v>
       </c>
       <c r="I10" s="1">
-        <v>9848.1306</v>
+        <v>9547.183999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>90226.1603</v>
+        <v>89925.5226</v>
       </c>
       <c r="K10" s="1">
-        <v>73530.17969999999</v>
+        <v>73837.90330000001</v>
       </c>
       <c r="L10" s="1">
-        <v>15.4504</v>
+        <v>15.484</v>
       </c>
       <c r="M10" s="1">
         <v>1</v>
       </c>
       <c r="N10" s="1">
-        <v>3893.3007</v>
+        <v>3901.0903</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7549.8957</v>
+        <v>-7587.6212</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0114</v>
+        <v>-0.0117</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>16.4004</v>
       </c>
       <c r="C11" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D11" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E11" s="1">
-        <v>5436.6468</v>
+        <v>5447.5165</v>
       </c>
       <c r="F11" s="1">
-        <v>799.8026</v>
+        <v>801.4305000000001</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>89163.1817</v>
+        <v>89162.7703</v>
       </c>
       <c r="I11" s="1">
-        <v>12298.2349</v>
+        <v>11959.5628</v>
       </c>
       <c r="J11" s="1">
-        <v>101461.4166</v>
+        <v>101122.3331</v>
       </c>
       <c r="K11" s="1">
-        <v>84973.376</v>
+        <v>85326.6148</v>
       </c>
       <c r="L11" s="1">
-        <v>15.6297</v>
+        <v>15.6634</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-13117.0824</v>
+        <v>-13170.1478</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0123</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>15.3877</v>
       </c>
       <c r="C12" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D12" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E12" s="1">
-        <v>6236.4494</v>
+        <v>6248.9469</v>
       </c>
       <c r="F12" s="1">
-        <v>1093.5392</v>
+        <v>1095.7428</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>95964.6118</v>
+        <v>95964.4534</v>
       </c>
       <c r="I12" s="1">
-        <v>9181.1525</v>
+        <v>8789.415000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>105145.7643</v>
+        <v>104753.8684</v>
       </c>
       <c r="K12" s="1">
-        <v>98090.4584</v>
+        <v>98496.7626</v>
       </c>
       <c r="L12" s="1">
-        <v>15.7286</v>
+        <v>15.7621</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-16827.0536</v>
+        <v>-16894.7098</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0567</v>
+        <v>-0.0573</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>14.6367</v>
       </c>
       <c r="C13" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D13" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E13" s="1">
-        <v>7329.9886</v>
+        <v>7344.6897</v>
       </c>
       <c r="F13" s="1">
-        <v>844.0495</v>
+        <v>811.0395</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>107286.844</v>
+        <v>107286.8205</v>
       </c>
       <c r="I13" s="1">
-        <v>2354.0989</v>
+        <v>1894.7053</v>
       </c>
       <c r="J13" s="1">
-        <v>109640.9429</v>
+        <v>109181.5257</v>
       </c>
       <c r="K13" s="1">
-        <v>114917.512</v>
+        <v>115391.4724</v>
       </c>
       <c r="L13" s="1">
-        <v>15.6777</v>
+        <v>15.7109</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12354.0989</v>
+        <v>-11894.7053</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0478</v>
+        <v>-0.0486</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,49 +2854,49 @@
         <v>13.0061</v>
       </c>
       <c r="C14" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D14" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E14" s="1">
-        <v>8174.0381</v>
+        <v>8155.7292</v>
       </c>
       <c r="F14" s="1">
-        <v>-8174.0381</v>
+        <v>-8155.7292</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>106312.3564</v>
+        <v>105862.1807</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>106312.3564</v>
+        <v>105862.1807</v>
       </c>
       <c r="K14" s="1">
-        <v>127271.6109</v>
+        <v>127286.1776</v>
       </c>
       <c r="L14" s="1">
-        <v>15.5702</v>
+        <v>15.607</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3298.4949</v>
+        <v>3305.1104</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>109610.8513</v>
+        <v>109167.291</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1114</v>
+        <v>-0.1118</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>14.1176</v>
       </c>
       <c r="C2" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D2" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>15.3311</v>
       </c>
       <c r="C3" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D3" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E3" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="F3" s="1">
-        <v>602.7248</v>
+        <v>606.7725</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10859.5654</v>
+        <v>10816.1375</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10859.5654</v>
+        <v>10816.1375</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9240.434600000001</v>
+        <v>-9321.1183</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.08599999999999999</v>
+        <v>0.08160000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>15.3637</v>
       </c>
       <c r="C4" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D4" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E4" s="1">
-        <v>1311.0605</v>
+        <v>1313.6911</v>
       </c>
       <c r="F4" s="1">
-        <v>661.1857</v>
+        <v>662.504</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20142.7406</v>
+        <v>20142.8263</v>
       </c>
       <c r="I4" s="1">
-        <v>759.5654</v>
+        <v>678.8817</v>
       </c>
       <c r="J4" s="1">
-        <v>20902.3059</v>
+        <v>20821.708</v>
       </c>
       <c r="K4" s="1">
-        <v>19240.4346</v>
+        <v>19321.1183</v>
       </c>
       <c r="L4" s="1">
-        <v>14.6755</v>
+        <v>14.7075</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10158.2594</v>
+        <v>-10198.9177</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.002</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>14.6447</v>
       </c>
       <c r="C5" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D5" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E5" s="1">
-        <v>1972.2463</v>
+        <v>1976.1951</v>
       </c>
       <c r="F5" s="1">
-        <v>723.9005</v>
+        <v>714.1858999999999</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>28882.9549</v>
+        <v>28882.8824</v>
       </c>
       <c r="I5" s="1">
-        <v>601.3059</v>
+        <v>479.964</v>
       </c>
       <c r="J5" s="1">
-        <v>29484.2609</v>
+        <v>29362.8464</v>
       </c>
       <c r="K5" s="1">
-        <v>29398.6941</v>
+        <v>29520.036</v>
       </c>
       <c r="L5" s="1">
-        <v>14.9062</v>
+        <v>14.9378</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
       </c>
       <c r="N5" s="1">
-        <v>1179.9545</v>
+        <v>1182.322</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9421.351500000001</v>
+        <v>-9297.642</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0459</v>
+        <v>-0.0473</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>15.486</v>
       </c>
       <c r="C6" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D6" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E6" s="1">
-        <v>2696.1468</v>
+        <v>2690.381</v>
       </c>
       <c r="F6" s="1">
-        <v>597.7994</v>
+        <v>610.1722</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>41752.5292</v>
+        <v>41579.839</v>
       </c>
       <c r="I6" s="1">
-        <v>1179.9545</v>
+        <v>1182.322</v>
       </c>
       <c r="J6" s="1">
-        <v>42932.4836</v>
+        <v>42762.1611</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.836</v>
+        <v>14.8678</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9257.5209</v>
+        <v>-9468.0417</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0873</v>
+        <v>0.0864</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>16.1958</v>
       </c>
       <c r="C7" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D7" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E7" s="1">
-        <v>3293.9462</v>
+        <v>3300.5532</v>
       </c>
       <c r="F7" s="1">
-        <v>504.6023</v>
+        <v>505.586</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>53347.7637</v>
+        <v>53348.162</v>
       </c>
       <c r="I7" s="1">
-        <v>1922.4335</v>
+        <v>1714.2803</v>
       </c>
       <c r="J7" s="1">
-        <v>55270.1972</v>
+        <v>55062.4423</v>
       </c>
       <c r="K7" s="1">
-        <v>49257.5209</v>
+        <v>49468.0417</v>
       </c>
       <c r="L7" s="1">
-        <v>14.954</v>
+        <v>14.9878</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8172.4374</v>
+        <v>-8204.750599999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0442</v>
+        <v>0.0436</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>16.4264</v>
       </c>
       <c r="C8" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D8" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E8" s="1">
-        <v>3798.5484</v>
+        <v>3806.1392</v>
       </c>
       <c r="F8" s="1">
-        <v>592.8795</v>
+        <v>594.075</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>62396.4757</v>
+        <v>62396.3238</v>
       </c>
       <c r="I8" s="1">
-        <v>3749.9962</v>
+        <v>3509.5297</v>
       </c>
       <c r="J8" s="1">
-        <v>66146.4719</v>
+        <v>65905.8536</v>
       </c>
       <c r="K8" s="1">
-        <v>57429.9583</v>
+        <v>57672.7923</v>
       </c>
       <c r="L8" s="1">
-        <v>15.1189</v>
+        <v>15.1526</v>
       </c>
       <c r="M8" s="1">
         <v>0.75</v>
       </c>
       <c r="N8" s="1">
-        <v>2223.4137</v>
+        <v>2227.8734</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7515.4627</v>
+        <v>-7550.1856</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0134</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>17.107</v>
       </c>
       <c r="C9" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D9" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E9" s="1">
-        <v>4391.428</v>
+        <v>4400.2142</v>
       </c>
       <c r="F9" s="1">
-        <v>452.0107</v>
+        <v>452.9268</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>75124.158</v>
+        <v>75123.9776</v>
       </c>
       <c r="I9" s="1">
-        <v>6234.5334</v>
+        <v>5959.3442</v>
       </c>
       <c r="J9" s="1">
-        <v>81358.6914</v>
+        <v>81083.32180000001</v>
       </c>
       <c r="K9" s="1">
-        <v>67168.83470000001</v>
+        <v>67450.85129999999</v>
       </c>
       <c r="L9" s="1">
-        <v>15.2954</v>
+        <v>15.329</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7732.5477</v>
+        <v>-7763.7535</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0684</v>
+        <v>0.0682</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,49 +3410,49 @@
         <v>16.8894</v>
       </c>
       <c r="C10" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D10" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E10" s="1">
-        <v>4843.4387</v>
+        <v>4853.141</v>
       </c>
       <c r="F10" s="1">
-        <v>703.5806</v>
+        <v>704.9686</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>81802.289</v>
+        <v>81802.60340000001</v>
       </c>
       <c r="I10" s="1">
-        <v>8501.9858</v>
+        <v>8195.590700000001</v>
       </c>
       <c r="J10" s="1">
-        <v>90304.2748</v>
+        <v>89998.19409999999</v>
       </c>
       <c r="K10" s="1">
-        <v>74901.3824</v>
+        <v>75214.6048</v>
       </c>
       <c r="L10" s="1">
-        <v>15.4645</v>
+        <v>15.4981</v>
       </c>
       <c r="M10" s="1">
         <v>1</v>
       </c>
       <c r="N10" s="1">
-        <v>3952.2852</v>
+        <v>3960.1928</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7930.7689</v>
+        <v>-7970.1323</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0115</v>
+        <v>-0.0119</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>16.4004</v>
       </c>
       <c r="C11" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D11" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E11" s="1">
-        <v>5547.0193</v>
+        <v>5558.1096</v>
       </c>
       <c r="F11" s="1">
-        <v>832.223</v>
+        <v>833.9164</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>90973.33500000001</v>
+        <v>90972.9152</v>
       </c>
       <c r="I11" s="1">
-        <v>10571.2169</v>
+        <v>10225.4583</v>
       </c>
       <c r="J11" s="1">
-        <v>101544.5519</v>
+        <v>101198.3735</v>
       </c>
       <c r="K11" s="1">
-        <v>86784.43640000001</v>
+        <v>87144.9299</v>
       </c>
       <c r="L11" s="1">
-        <v>15.6452</v>
+        <v>15.6789</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-13648.7905</v>
+        <v>-13703.9985</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0124</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>15.3877</v>
       </c>
       <c r="C12" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D12" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E12" s="1">
-        <v>6379.2423</v>
+        <v>6392.026</v>
       </c>
       <c r="F12" s="1">
-        <v>1099.7372</v>
+        <v>1071.5348</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>98161.8667</v>
+        <v>98161.7047</v>
       </c>
       <c r="I12" s="1">
-        <v>6922.4265</v>
+        <v>6521.4598</v>
       </c>
       <c r="J12" s="1">
-        <v>105084.2932</v>
+        <v>104683.1645</v>
       </c>
       <c r="K12" s="1">
-        <v>100433.2268</v>
+        <v>100848.9285</v>
       </c>
       <c r="L12" s="1">
-        <v>15.7438</v>
+        <v>15.7773</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-16922.4265</v>
+        <v>-16521.4598</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0579</v>
+        <v>-0.0586</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>14.6367</v>
       </c>
       <c r="C13" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D13" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E13" s="1">
-        <v>7478.9795</v>
+        <v>7463.5609</v>
       </c>
       <c r="F13" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>109467.5796</v>
+        <v>109023.2191</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>109467.5796</v>
+        <v>109023.2191</v>
       </c>
       <c r="K13" s="1">
-        <v>117355.6533</v>
+        <v>117370.3883</v>
       </c>
       <c r="L13" s="1">
-        <v>15.6914</v>
+        <v>15.7258</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3611,7 +3611,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0488</v>
+        <v>-0.0494</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,49 +3622,49 @@
         <v>13.0061</v>
       </c>
       <c r="C14" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D14" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E14" s="1">
-        <v>8162.1936</v>
+        <v>8145.41</v>
       </c>
       <c r="F14" s="1">
-        <v>-8162.1936</v>
+        <v>-8145.41</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>106158.3066</v>
+        <v>105728.2369</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>106158.3066</v>
+        <v>105728.2369</v>
       </c>
       <c r="K14" s="1">
-        <v>127355.6533</v>
+        <v>127370.3883</v>
       </c>
       <c r="L14" s="1">
-        <v>15.6031</v>
+        <v>15.6371</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3365.5408</v>
+        <v>3358.6024</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>109523.8474</v>
+        <v>109086.8393</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1114</v>
+        <v>-0.1117</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>14.1176</v>
       </c>
       <c r="C2" s="1">
-        <v>14.1176</v>
+        <v>14.0894</v>
       </c>
       <c r="D2" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>15.3311</v>
       </c>
       <c r="C3" s="1">
-        <v>15.3311</v>
+        <v>15.3004</v>
       </c>
       <c r="D3" s="1">
-        <v>15.3311</v>
+        <v>15.3618</v>
       </c>
       <c r="E3" s="1">
-        <v>708.3357</v>
+        <v>706.9186</v>
       </c>
       <c r="F3" s="1">
-        <v>605.9862000000001</v>
+        <v>610.0404</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10859.5654</v>
+        <v>10816.1375</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10859.5654</v>
+        <v>10816.1375</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>14.1176</v>
+        <v>14.1459</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9290.434600000001</v>
+        <v>-9371.3189</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.08599999999999999</v>
+        <v>0.08160000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>15.3637</v>
       </c>
       <c r="C4" s="1">
-        <v>15.3637</v>
+        <v>15.333</v>
       </c>
       <c r="D4" s="1">
-        <v>15.3637</v>
+        <v>15.3945</v>
       </c>
       <c r="E4" s="1">
-        <v>1314.3219</v>
+        <v>1316.959</v>
       </c>
       <c r="F4" s="1">
-        <v>667.769</v>
+        <v>669.1004</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20192.8469</v>
+        <v>20192.9329</v>
       </c>
       <c r="I4" s="1">
-        <v>709.5654</v>
+        <v>628.6811</v>
       </c>
       <c r="J4" s="1">
-        <v>20902.4123</v>
+        <v>20821.6139</v>
       </c>
       <c r="K4" s="1">
-        <v>19290.4346</v>
+        <v>19371.3189</v>
       </c>
       <c r="L4" s="1">
-        <v>14.6771</v>
+        <v>14.7091</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10259.4031</v>
+        <v>-10300.4668</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0021</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>14.6447</v>
       </c>
       <c r="C5" s="1">
-        <v>14.6447</v>
+        <v>14.6154</v>
       </c>
       <c r="D5" s="1">
-        <v>14.6447</v>
+        <v>14.674</v>
       </c>
       <c r="E5" s="1">
-        <v>1982.0909</v>
+        <v>1986.0595</v>
       </c>
       <c r="F5" s="1">
-        <v>713.5798</v>
+        <v>703.8445</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>29027.1266</v>
+        <v>29027.0537</v>
       </c>
       <c r="I5" s="1">
-        <v>450.1623</v>
+        <v>328.2142</v>
       </c>
       <c r="J5" s="1">
-        <v>29477.2889</v>
+        <v>29355.268</v>
       </c>
       <c r="K5" s="1">
-        <v>29549.8377</v>
+        <v>29671.7858</v>
       </c>
       <c r="L5" s="1">
-        <v>14.9084</v>
+        <v>14.94</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
       </c>
       <c r="N5" s="1">
-        <v>1182.8897</v>
+        <v>1185.2631</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9267.2726</v>
+        <v>-9142.9511</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0461</v>
+        <v>-0.0476</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>15.486</v>
       </c>
       <c r="C6" s="1">
-        <v>15.486</v>
+        <v>15.455</v>
       </c>
       <c r="D6" s="1">
-        <v>15.486</v>
+        <v>15.517</v>
       </c>
       <c r="E6" s="1">
-        <v>2695.6707</v>
+        <v>2689.904</v>
       </c>
       <c r="F6" s="1">
-        <v>631.3775000000001</v>
+        <v>643.8176999999999</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>41745.1567</v>
+        <v>41572.4661</v>
       </c>
       <c r="I6" s="1">
-        <v>1182.8897</v>
+        <v>1185.2631</v>
       </c>
       <c r="J6" s="1">
-        <v>42928.0464</v>
+        <v>42757.7292</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>14.8386</v>
+        <v>14.8704</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9777.5126</v>
+        <v>-9990.1199</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.08740000000000001</v>
+        <v>0.08649999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>16.1958</v>
       </c>
       <c r="C7" s="1">
-        <v>16.1957</v>
+        <v>16.1634</v>
       </c>
       <c r="D7" s="1">
-        <v>16.1958</v>
+        <v>16.2282</v>
       </c>
       <c r="E7" s="1">
-        <v>3327.0483</v>
+        <v>3333.7217</v>
       </c>
       <c r="F7" s="1">
-        <v>519.3745</v>
+        <v>520.3875</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>53883.8754</v>
+        <v>53884.2777</v>
       </c>
       <c r="I7" s="1">
-        <v>1405.3771</v>
+        <v>1195.1432</v>
       </c>
       <c r="J7" s="1">
-        <v>55289.2525</v>
+        <v>55079.421</v>
       </c>
       <c r="K7" s="1">
-        <v>49777.5126</v>
+        <v>49990.1199</v>
       </c>
       <c r="L7" s="1">
-        <v>14.9615</v>
+        <v>14.9953</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8411.685799999999</v>
+        <v>-8444.9527</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0446</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>16.4264</v>
       </c>
       <c r="C8" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D8" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E8" s="1">
-        <v>3846.4228</v>
+        <v>3854.1092</v>
       </c>
       <c r="F8" s="1">
-        <v>611.6412</v>
+        <v>612.8742999999999</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>63182.879</v>
+        <v>63182.7252</v>
       </c>
       <c r="I8" s="1">
-        <v>2993.6913</v>
+        <v>2750.1906</v>
       </c>
       <c r="J8" s="1">
-        <v>66176.57030000001</v>
+        <v>65932.9158</v>
       </c>
       <c r="K8" s="1">
-        <v>58189.1984</v>
+        <v>58435.0726</v>
       </c>
       <c r="L8" s="1">
-        <v>15.1281</v>
+        <v>15.1618</v>
       </c>
       <c r="M8" s="1">
         <v>0.75</v>
       </c>
       <c r="N8" s="1">
-        <v>2245.7576</v>
+        <v>2250.2622</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7801.3053</v>
+        <v>-7837.2204</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0136</v>
+        <v>0.0131</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>17.107</v>
       </c>
       <c r="C9" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D9" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E9" s="1">
-        <v>4458.064</v>
+        <v>4466.9836</v>
       </c>
       <c r="F9" s="1">
-        <v>471.403</v>
+        <v>472.358</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>76264.10030000001</v>
+        <v>76263.9172</v>
       </c>
       <c r="I9" s="1">
-        <v>5192.3859</v>
+        <v>4912.9702</v>
       </c>
       <c r="J9" s="1">
-        <v>81456.4862</v>
+        <v>81176.88740000001</v>
       </c>
       <c r="K9" s="1">
-        <v>68236.2613</v>
+        <v>68522.5551</v>
       </c>
       <c r="L9" s="1">
-        <v>15.3063</v>
+        <v>15.3398</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8064.2908</v>
+        <v>-8096.8304</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0693</v>
+        <v>0.06909999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +4178,49 @@
         <v>16.8894</v>
       </c>
       <c r="C10" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D10" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E10" s="1">
-        <v>4929.4669</v>
+        <v>4939.3416</v>
       </c>
       <c r="F10" s="1">
-        <v>730.5259</v>
+        <v>731.9675</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>83255.2461</v>
+        <v>83255.5661</v>
       </c>
       <c r="I10" s="1">
-        <v>7128.0951</v>
+        <v>6816.1398</v>
       </c>
       <c r="J10" s="1">
-        <v>90383.3412</v>
+        <v>90071.7058</v>
       </c>
       <c r="K10" s="1">
-        <v>76300.5521</v>
+        <v>76619.3855</v>
       </c>
       <c r="L10" s="1">
-        <v>15.4785</v>
+        <v>15.5121</v>
       </c>
       <c r="M10" s="1">
         <v>1</v>
       </c>
       <c r="N10" s="1">
-        <v>4012.2576</v>
+        <v>4020.2852</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8325.8863</v>
+        <v>-8366.946599999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0117</v>
+        <v>-0.0121</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>16.4004</v>
       </c>
       <c r="C11" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D11" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E11" s="1">
-        <v>5659.9928</v>
+        <v>5671.3091</v>
       </c>
       <c r="F11" s="1">
-        <v>865.8978</v>
+        <v>867.6592000000001</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>92826.1464</v>
+        <v>92825.7181</v>
       </c>
       <c r="I11" s="1">
-        <v>8802.2088</v>
+        <v>8449.1931</v>
       </c>
       <c r="J11" s="1">
-        <v>101628.3553</v>
+        <v>101274.9112</v>
       </c>
       <c r="K11" s="1">
-        <v>88638.696</v>
+        <v>89006.6174</v>
       </c>
       <c r="L11" s="1">
-        <v>15.6606</v>
+        <v>15.6942</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-14201.0702</v>
+        <v>-14258.5038</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0124</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>15.3877</v>
       </c>
       <c r="C12" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D12" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E12" s="1">
-        <v>6525.8906</v>
+        <v>6538.9682</v>
       </c>
       <c r="F12" s="1">
-        <v>948.8838</v>
+        <v>920.3677</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>100418.4472</v>
+        <v>100418.2815</v>
       </c>
       <c r="I12" s="1">
-        <v>4601.1386</v>
+        <v>4190.6893</v>
       </c>
       <c r="J12" s="1">
-        <v>105019.5858</v>
+        <v>104608.9708</v>
       </c>
       <c r="K12" s="1">
-        <v>102839.7662</v>
+        <v>103265.1212</v>
       </c>
       <c r="L12" s="1">
-        <v>15.7587</v>
+        <v>15.7923</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-14601.1386</v>
+        <v>-14190.6893</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0592</v>
+        <v>-0.0599</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>14.6367</v>
       </c>
       <c r="C13" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D13" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E13" s="1">
-        <v>7474.7744</v>
+        <v>7459.3359</v>
       </c>
       <c r="F13" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>109406.0303</v>
+        <v>108961.5039</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>109406.0303</v>
+        <v>108961.5039</v>
       </c>
       <c r="K13" s="1">
-        <v>117440.9048</v>
+        <v>117455.8105</v>
       </c>
       <c r="L13" s="1">
-        <v>15.7116</v>
+        <v>15.7461</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0488</v>
+        <v>-0.0493</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,49 +4390,49 @@
         <v>13.0061</v>
       </c>
       <c r="C14" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D14" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E14" s="1">
-        <v>8157.9885</v>
+        <v>8141.1851</v>
       </c>
       <c r="F14" s="1">
-        <v>-8157.9885</v>
+        <v>-8141.1851</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>106103.6142</v>
+        <v>105673.397</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>106103.6142</v>
+        <v>105673.397</v>
       </c>
       <c r="K14" s="1">
-        <v>127440.9048</v>
+        <v>127455.8105</v>
       </c>
       <c r="L14" s="1">
-        <v>15.6216</v>
+        <v>15.6557</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3363.6485</v>
+        <v>3356.7012</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>109467.2627</v>
+        <v>109030.0981</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1114</v>
+        <v>-0.1117</v>
       </c>
     </row>
   </sheetData>
@@ -4451,8 +4451,8 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
   </cols>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>15.6187</v>
+        <v>15.65</v>
       </c>
       <c r="D3" s="1">
-        <v>15.5348</v>
+        <v>15.5713</v>
       </c>
       <c r="E3" s="1">
-        <v>15.5702</v>
+        <v>15.607</v>
       </c>
       <c r="F3" s="1">
-        <v>15.6031</v>
+        <v>15.6371</v>
       </c>
       <c r="G3" s="1">
-        <v>15.6216</v>
+        <v>15.6557</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.0634</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0408</v>
+        <v>0.0283</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0405</v>
+        <v>0.0284</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0393</v>
+        <v>0.0271</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0382</v>
+        <v>0.0261</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0381</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1902</v>
       </c>
       <c r="C5" s="3">
-        <v>0.2075</v>
+        <v>0.2058</v>
       </c>
       <c r="D5" s="3">
-        <v>0.2034</v>
+        <v>0.202</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2045</v>
+        <v>0.2031</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2056</v>
+        <v>0.2041</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2064</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-0.4402</v>
       </c>
       <c r="C6" s="4">
-        <v>0.0987</v>
+        <v>0.039</v>
       </c>
       <c r="D6" s="4">
-        <v>0.09950000000000001</v>
+        <v>0.0401</v>
       </c>
       <c r="E6" s="4">
-        <v>0.0927</v>
+        <v>0.0332</v>
       </c>
       <c r="F6" s="4">
-        <v>0.08690000000000001</v>
+        <v>0.0284</v>
       </c>
       <c r="G6" s="4">
-        <v>0.08599999999999999</v>
+        <v>0.0275</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.1603</v>
+        <v>-0.167</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.1672</v>
+        <v>-0.1736</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.1662</v>
+        <v>-0.1726</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.1653</v>
+        <v>-0.1716</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.1645</v>
+        <v>-0.1707</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>10929.7592</v>
+        <v>10907.5325</v>
       </c>
       <c r="D8" s="1">
-        <v>10405.6164</v>
+        <v>10426.469</v>
       </c>
       <c r="E8" s="1">
-        <v>10570.1058</v>
+        <v>10591.288</v>
       </c>
       <c r="F8" s="1">
-        <v>10721.1941</v>
+        <v>10728.9907</v>
       </c>
       <c r="G8" s="1">
-        <v>10804.5533</v>
+        <v>10812.5117</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P42_KFSDIV.xlsx
+++ b/output/1Y_P42_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>12538.1527</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.8293</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.8386</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.8322000000000001</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.8303</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.8292</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
